--- a/QLSV/UserData.xlsx
+++ b/QLSV/UserData.xlsx
@@ -1,38 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTGD\QLSV\QLSV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BA6B10-791B-41F4-8619-F324143DDCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{B72A8FED-FD22-4605-A7E5-17785EB65007}"/>
+    <x:workbookView windowWidth="11520" windowHeight="9072" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
+  <x:calcPr calcId="144525"/>
 </x:workbook>
 </file>
 
@@ -66,50 +44,386 @@
     <x:t>admin123</x:t>
   </x:si>
   <x:si>
-    <x:t>thaonhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thaonhi1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngthaonhi</x:t>
+    <x:t>admin1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nhi</x:t>
   </x:si>
   <x:si>
     <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nhi1</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="4">
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <x:numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="21">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="13"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="FF7F7F7F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="15"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F76"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
       <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="33">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFCC99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="9">
     <x:border>
       <x:left/>
       <x:right/>
@@ -117,23 +431,310 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FFB2B2B2"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4" tint="0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="49">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="49">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <x:cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <x:cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <x:cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <x:cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <x:cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <x:cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <x:cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <x:cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <x:cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <x:cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <x:cellStyle name="Note" xfId="12" builtinId="10"/>
+    <x:cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <x:cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <x:cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <x:cellStyle name="Title" xfId="16" builtinId="15"/>
+    <x:cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <x:cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <x:cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <x:cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <x:cellStyle name="Input" xfId="21" builtinId="20"/>
+    <x:cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <x:cellStyle name="Good" xfId="23" builtinId="26"/>
+    <x:cellStyle name="Output" xfId="24" builtinId="21"/>
+    <x:cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <x:cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <x:cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <x:cellStyle name="Total" xfId="28" builtinId="25"/>
+    <x:cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <x:cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <x:cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <x:cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <x:cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <x:cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <x:cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <x:cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <x:cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <x:cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <x:cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <x:cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <x:cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <x:cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <x:cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <x:cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <x:cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <x:cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </x:ext>
   </x:extLst>
 </x:styleSheet>
@@ -182,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,26 +816,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -267,23 +851,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,29 +992,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D20853FA-0F39-4782-A756-FA673E4F470B}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B5"/>
+  <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+      <x:selection activeCell="A7" sqref="A7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="14.4"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -455,7 +1016,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -463,7 +1024,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -471,7 +1032,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -479,7 +1040,7 @@
         <x:v>123456</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -492,20 +1053,20 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>12</x:v>
@@ -514,7 +1075,7 @@
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/QLSV/UserData.xlsx
+++ b/QLSV/UserData.xlsx
@@ -57,6 +57,12 @@
   </x:si>
   <x:si>
     <x:t>nhi1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>giaovien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>giaovien1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1072,6 +1078,22 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
